--- a/Code/Results/Cases/Case_1_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_118/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.58421841515149</v>
+        <v>17.11260631656082</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.170738569192697</v>
+        <v>7.701134910730441</v>
       </c>
       <c r="E2">
-        <v>9.530978453587895</v>
+        <v>14.96722265627409</v>
       </c>
       <c r="F2">
-        <v>34.13599993091176</v>
+        <v>45.68285142200519</v>
       </c>
       <c r="G2">
-        <v>45.58826136840657</v>
+        <v>55.45190140825297</v>
       </c>
       <c r="H2">
-        <v>14.43033103383902</v>
+        <v>20.91589483817961</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.706394628569615</v>
+        <v>11.89865745306942</v>
       </c>
       <c r="K2">
-        <v>12.25728463558039</v>
+        <v>10.59966846107984</v>
       </c>
       <c r="L2">
-        <v>5.547746184442003</v>
+        <v>9.277229157312012</v>
       </c>
       <c r="M2">
-        <v>9.848567653360456</v>
+        <v>16.07145015089271</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.08131986769159</v>
+        <v>17.06266031677161</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.15483919580418</v>
+        <v>7.708173286225478</v>
       </c>
       <c r="E3">
-        <v>9.567091261709711</v>
+        <v>14.98326580100813</v>
       </c>
       <c r="F3">
-        <v>33.66497782698438</v>
+        <v>45.6860255700572</v>
       </c>
       <c r="G3">
-        <v>44.65036176443824</v>
+        <v>55.36769166829395</v>
       </c>
       <c r="H3">
-        <v>14.35353925833562</v>
+        <v>20.94120542516939</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.744636943112567</v>
+        <v>11.90977629097207</v>
       </c>
       <c r="K3">
-        <v>11.520924224946</v>
+        <v>10.45216576039691</v>
       </c>
       <c r="L3">
-        <v>5.383172545489337</v>
+        <v>9.275998421076055</v>
       </c>
       <c r="M3">
-        <v>9.616296446488485</v>
+        <v>16.07332847837192</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.76868780207025</v>
+        <v>17.03534555965846</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.146005561147164</v>
+        <v>7.712979496534544</v>
       </c>
       <c r="E4">
-        <v>9.59064692388346</v>
+        <v>14.99375550644383</v>
       </c>
       <c r="F4">
-        <v>33.39421784924767</v>
+        <v>45.69606354608946</v>
       </c>
       <c r="G4">
-        <v>44.09806112751907</v>
+        <v>55.32752680191187</v>
       </c>
       <c r="H4">
-        <v>14.31400815076886</v>
+        <v>20.95976722412843</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.768837016259162</v>
+        <v>11.91696071866224</v>
       </c>
       <c r="K4">
-        <v>11.04553723858706</v>
+        <v>10.36339746320939</v>
       </c>
       <c r="L4">
-        <v>5.282315102231629</v>
+        <v>9.276698121696993</v>
       </c>
       <c r="M4">
-        <v>9.475669027317176</v>
+        <v>16.0769411896587</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.64050825473617</v>
+        <v>17.02506645370864</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.142633902633504</v>
+        <v>7.715060247211788</v>
       </c>
       <c r="E5">
-        <v>9.600590457998409</v>
+        <v>14.99819121779132</v>
       </c>
       <c r="F5">
-        <v>33.28847750990496</v>
+        <v>45.70218850668409</v>
       </c>
       <c r="G5">
-        <v>43.87898515177432</v>
+        <v>55.31406864774587</v>
       </c>
       <c r="H5">
-        <v>14.29976230004504</v>
+        <v>20.96809054458543</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.778882499562795</v>
+        <v>11.91997854209577</v>
       </c>
       <c r="K5">
-        <v>10.84597580267768</v>
+        <v>10.32772417912428</v>
       </c>
       <c r="L5">
-        <v>5.241318103698822</v>
+        <v>9.277350421523362</v>
       </c>
       <c r="M5">
-        <v>9.418928028051699</v>
+        <v>16.07903352165654</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.61918297976224</v>
+        <v>17.02341131162967</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.142087668074383</v>
+        <v>7.715413143083749</v>
       </c>
       <c r="E6">
-        <v>9.602262289473995</v>
+        <v>14.99893750296236</v>
       </c>
       <c r="F6">
-        <v>33.27119559485532</v>
+        <v>45.70332841816473</v>
       </c>
       <c r="G6">
-        <v>43.84297118595404</v>
+        <v>55.31200982203225</v>
       </c>
       <c r="H6">
-        <v>14.29750777747051</v>
+        <v>20.96951846701046</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.78056172662945</v>
+        <v>11.92048509878519</v>
       </c>
       <c r="K6">
-        <v>10.81248683261144</v>
+        <v>10.32183227874754</v>
       </c>
       <c r="L6">
-        <v>5.234518489555738</v>
+        <v>9.277480943745299</v>
       </c>
       <c r="M6">
-        <v>9.40954235096873</v>
+        <v>16.07941845095736</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.76696201923772</v>
+        <v>17.03520347165838</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.145959173003714</v>
+        <v>7.713007063122927</v>
       </c>
       <c r="E7">
-        <v>9.590779635290295</v>
+        <v>14.99381467534785</v>
       </c>
       <c r="F7">
-        <v>33.39277325000966</v>
+        <v>45.6961379124683</v>
       </c>
       <c r="G7">
-        <v>44.09508226067519</v>
+        <v>55.32733351262852</v>
       </c>
       <c r="H7">
-        <v>14.31380855150463</v>
+        <v>20.95987640189841</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.768971745328769</v>
+        <v>11.91700105291406</v>
       </c>
       <c r="K7">
-        <v>11.0428694931933</v>
+        <v>10.36291427122951</v>
       </c>
       <c r="L7">
-        <v>5.281761709254072</v>
+        <v>9.276705430717504</v>
       </c>
       <c r="M7">
-        <v>9.474901419388026</v>
+        <v>16.07696689465525</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.41172489349952</v>
+        <v>17.09469476626296</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.165060355166532</v>
+        <v>7.703461351212066</v>
       </c>
       <c r="E8">
-        <v>9.543141253997161</v>
+        <v>14.97262188870916</v>
       </c>
       <c r="F8">
-        <v>33.96973919273145</v>
+        <v>45.6822674369306</v>
       </c>
       <c r="G8">
-        <v>45.26002211699559</v>
+        <v>55.42047586114912</v>
       </c>
       <c r="H8">
-        <v>14.40224046689284</v>
+        <v>20.9239947024512</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.719433116171749</v>
+        <v>11.90241718892398</v>
       </c>
       <c r="K8">
-        <v>12.00821716352388</v>
+        <v>10.54846526769926</v>
       </c>
       <c r="L8">
-        <v>5.490993446850523</v>
+        <v>9.276503493439378</v>
       </c>
       <c r="M8">
-        <v>9.768106964990938</v>
+        <v>16.07158841370327</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.63835537098038</v>
+        <v>17.23752789928453</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.210153132075804</v>
+        <v>7.688573629346819</v>
       </c>
       <c r="E9">
-        <v>9.460850617190026</v>
+        <v>14.93611841722837</v>
       </c>
       <c r="F9">
-        <v>35.24913343085834</v>
+        <v>45.71920561747216</v>
       </c>
       <c r="G9">
-        <v>47.72841443088627</v>
+        <v>55.69427166652435</v>
       </c>
       <c r="H9">
-        <v>14.63843331908009</v>
+        <v>20.87761676898121</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.627855620986288</v>
+        <v>11.87664336562698</v>
       </c>
       <c r="K9">
-        <v>13.71695138795137</v>
+        <v>10.92445973886255</v>
       </c>
       <c r="L9">
-        <v>5.90059139889582</v>
+        <v>9.287597922465666</v>
       </c>
       <c r="M9">
-        <v>10.356076427692</v>
+        <v>16.08047496289758</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.50847358965786</v>
+        <v>17.35779754607266</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.248350061524786</v>
+        <v>7.679953001910225</v>
       </c>
       <c r="E10">
-        <v>9.407429796507753</v>
+        <v>14.9123594127291</v>
       </c>
       <c r="F10">
-        <v>36.28121386195715</v>
+        <v>45.78534073232168</v>
       </c>
       <c r="G10">
-        <v>49.65004653875747</v>
+        <v>55.95028892134268</v>
       </c>
       <c r="H10">
-        <v>14.8534006886651</v>
+        <v>20.85818245405025</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.563766032966742</v>
+        <v>11.85941426570864</v>
       </c>
       <c r="K10">
-        <v>14.86122382014348</v>
+        <v>11.20521616447804</v>
       </c>
       <c r="L10">
-        <v>6.339675284101724</v>
+        <v>9.302670096569814</v>
       </c>
       <c r="M10">
-        <v>10.79251513945264</v>
+        <v>16.09873330339255</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.8962879806367</v>
+        <v>17.41569127371415</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.266930932533846</v>
+        <v>7.676530580398931</v>
       </c>
       <c r="E11">
-        <v>9.384722621439721</v>
+        <v>14.90221068206482</v>
       </c>
       <c r="F11">
-        <v>36.77110944686896</v>
+        <v>45.82385458144198</v>
       </c>
       <c r="G11">
-        <v>50.54700881223467</v>
+        <v>56.07847174789789</v>
       </c>
       <c r="H11">
-        <v>14.96087160959959</v>
+        <v>20.85252117510425</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.535256979339813</v>
+        <v>11.85194368390005</v>
       </c>
       <c r="K11">
-        <v>15.35812629159861</v>
+        <v>11.33331617839133</v>
       </c>
       <c r="L11">
-        <v>6.538137068980499</v>
+        <v>9.311008978505324</v>
       </c>
       <c r="M11">
-        <v>10.99139091944156</v>
+        <v>16.10955704910727</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.04191240208656</v>
+        <v>17.43805806178887</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.274149990318893</v>
+        <v>7.67530605303471</v>
       </c>
       <c r="E12">
-        <v>9.376359890431626</v>
+        <v>14.89846208701609</v>
       </c>
       <c r="F12">
-        <v>36.9595842001952</v>
+        <v>45.83964561780225</v>
       </c>
       <c r="G12">
-        <v>50.88990125914737</v>
+        <v>56.12867576237252</v>
       </c>
       <c r="H12">
-        <v>15.00301630803974</v>
+        <v>20.85083438943647</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.524550274283348</v>
+        <v>11.84916730384843</v>
       </c>
       <c r="K12">
-        <v>15.54294171820255</v>
+        <v>11.38183023617407</v>
       </c>
       <c r="L12">
-        <v>6.612035377841274</v>
+        <v>9.314377863457615</v>
       </c>
       <c r="M12">
-        <v>11.0667026769413</v>
+        <v>16.11401491107441</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.01060547906913</v>
+        <v>17.43322146947439</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.272586937960079</v>
+        <v>7.675566603188272</v>
       </c>
       <c r="E13">
-        <v>9.378150341826617</v>
+        <v>14.89926521555959</v>
       </c>
       <c r="F13">
-        <v>36.91886053122946</v>
+        <v>45.83619116366992</v>
       </c>
       <c r="G13">
-        <v>50.81590997582997</v>
+        <v>56.11778978705839</v>
       </c>
       <c r="H13">
-        <v>14.9938744011262</v>
+        <v>20.85117734754808</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.526852256101415</v>
+        <v>11.84976291235697</v>
       </c>
       <c r="K13">
-        <v>15.50328658655251</v>
+        <v>11.37138240281015</v>
       </c>
       <c r="L13">
-        <v>6.596175629470068</v>
+        <v>9.313642957800127</v>
       </c>
       <c r="M13">
-        <v>11.05048353552384</v>
+        <v>16.11303890671126</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.90829368622055</v>
+        <v>17.41752259280307</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.267521124371863</v>
+        <v>7.676428407201784</v>
       </c>
       <c r="E14">
-        <v>9.384029843274194</v>
+        <v>14.90190039053383</v>
       </c>
       <c r="F14">
-        <v>36.78655582979023</v>
+        <v>45.82512956995573</v>
       </c>
       <c r="G14">
-        <v>50.57515418630702</v>
+        <v>56.08256884396622</v>
       </c>
       <c r="H14">
-        <v>14.96430953973079</v>
+        <v>20.8523732445426</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.534374369752338</v>
+        <v>11.85171421711515</v>
       </c>
       <c r="K14">
-        <v>15.37339801922599</v>
+        <v>11.33730763103959</v>
       </c>
       <c r="L14">
-        <v>6.544241793073108</v>
+        <v>9.311281919545445</v>
       </c>
       <c r="M14">
-        <v>10.99758707094385</v>
+        <v>16.10991661987877</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.84546217625914</v>
+        <v>17.40796393409587</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.264442288831611</v>
+        <v>7.676965585352447</v>
       </c>
       <c r="E15">
-        <v>9.387662154869231</v>
+        <v>14.9035268101302</v>
       </c>
       <c r="F15">
-        <v>36.7059020687235</v>
+        <v>45.81851099424364</v>
       </c>
       <c r="G15">
-        <v>50.42810425441336</v>
+        <v>56.0612110264045</v>
       </c>
       <c r="H15">
-        <v>14.94639042851952</v>
+        <v>20.85316527497184</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.538993363963002</v>
+        <v>11.8529162872126</v>
       </c>
       <c r="K15">
-        <v>15.29340271182221</v>
+        <v>11.31643509809216</v>
       </c>
       <c r="L15">
-        <v>6.51226782555316</v>
+        <v>9.309863147775991</v>
       </c>
       <c r="M15">
-        <v>10.9651854204478</v>
+        <v>16.10805080948174</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.48296051510186</v>
+        <v>17.35407691715429</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.247160801279373</v>
+        <v>7.680186683037396</v>
       </c>
       <c r="E16">
-        <v>9.408946399437419</v>
+        <v>14.91303589790335</v>
       </c>
       <c r="F16">
-        <v>36.24961081526164</v>
+        <v>45.78299293208254</v>
       </c>
       <c r="G16">
-        <v>49.59188230341461</v>
+        <v>55.94214592890337</v>
       </c>
       <c r="H16">
-        <v>14.84657675013693</v>
+        <v>20.85861639872765</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.56564183845659</v>
+        <v>11.85990985320997</v>
       </c>
       <c r="K16">
-        <v>14.82827839856078</v>
+        <v>11.19684795018354</v>
       </c>
       <c r="L16">
-        <v>6.326528994327596</v>
+        <v>9.302154790537154</v>
       </c>
       <c r="M16">
-        <v>10.77952079055893</v>
+        <v>16.0980763678684</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.25846288113359</v>
+        <v>17.32182437256762</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.236874280064983</v>
+        <v>7.682290346736083</v>
       </c>
       <c r="E17">
-        <v>9.422416432377316</v>
+        <v>14.91903807417978</v>
       </c>
       <c r="F17">
-        <v>35.97493399306246</v>
+        <v>45.76335902774686</v>
       </c>
       <c r="G17">
-        <v>49.08468759704721</v>
+        <v>55.87209053901832</v>
       </c>
       <c r="H17">
-        <v>14.78786310049701</v>
+        <v>20.86277474398247</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.582152532516119</v>
+        <v>11.86429403241752</v>
       </c>
       <c r="K17">
-        <v>14.53691794286757</v>
+        <v>11.12354734174245</v>
       </c>
       <c r="L17">
-        <v>6.210335109291791</v>
+        <v>9.29780424996574</v>
       </c>
       <c r="M17">
-        <v>10.66567274334783</v>
+        <v>16.09260025869755</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.12858773508531</v>
+        <v>17.303573988349</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.231070518668361</v>
+        <v>7.683547318775447</v>
       </c>
       <c r="E18">
-        <v>9.430313641968539</v>
+        <v>14.92255244739581</v>
       </c>
       <c r="F18">
-        <v>35.81886507443834</v>
+        <v>45.75285985097142</v>
       </c>
       <c r="G18">
-        <v>48.79511052934407</v>
+        <v>55.832901025714</v>
       </c>
       <c r="H18">
-        <v>14.7550004213331</v>
+        <v>20.86546580346244</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.591710052269778</v>
+        <v>11.86685025464889</v>
       </c>
       <c r="K18">
-        <v>14.36710728847161</v>
+        <v>11.08142566836072</v>
       </c>
       <c r="L18">
-        <v>6.14267335960951</v>
+        <v>9.295441603245912</v>
       </c>
       <c r="M18">
-        <v>10.60022454463004</v>
+        <v>16.08968773489125</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.0844882106151</v>
+        <v>17.29744673438179</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.229124558081378</v>
+        <v>7.683980989601122</v>
       </c>
       <c r="E19">
-        <v>9.433013004830251</v>
+        <v>14.92375302548368</v>
       </c>
       <c r="F19">
-        <v>35.7663514323264</v>
+        <v>45.74944148074363</v>
       </c>
       <c r="G19">
-        <v>48.69743538417694</v>
+        <v>55.81982243832508</v>
       </c>
       <c r="H19">
-        <v>14.74402793243276</v>
+        <v>20.86642835648008</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.594956654574441</v>
+        <v>11.86772168943317</v>
       </c>
       <c r="K19">
-        <v>14.30922837586217</v>
+        <v>11.06717220855812</v>
       </c>
       <c r="L19">
-        <v>6.119621398477693</v>
+        <v>9.294665699973777</v>
       </c>
       <c r="M19">
-        <v>10.57807231010685</v>
+        <v>16.08874242759931</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.28243931321541</v>
+        <v>17.32522671691224</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.237957559943641</v>
+        <v>7.682061546023461</v>
       </c>
       <c r="E20">
-        <v>9.420966995055847</v>
+        <v>14.91839270944136</v>
       </c>
       <c r="F20">
-        <v>36.00397512064607</v>
+        <v>45.76536697842138</v>
       </c>
       <c r="G20">
-        <v>49.13845744598812</v>
+        <v>55.87943389058007</v>
       </c>
       <c r="H20">
-        <v>14.79401890968985</v>
+        <v>20.86230110656243</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.580388654030677</v>
+        <v>11.86382375393131</v>
       </c>
       <c r="K20">
-        <v>14.56816401432918</v>
+        <v>11.13134665474796</v>
       </c>
       <c r="L20">
-        <v>6.222789987870425</v>
+        <v>9.298252931569035</v>
       </c>
       <c r="M20">
-        <v>10.67778888331171</v>
+        <v>16.09315867219259</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.93837913983157</v>
+        <v>17.42212180615933</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.269004030929501</v>
+        <v>7.676173337262998</v>
       </c>
       <c r="E21">
-        <v>9.382296428498586</v>
+        <v>14.90112381324293</v>
       </c>
       <c r="F21">
-        <v>36.825336281578</v>
+        <v>45.82834592668281</v>
       </c>
       <c r="G21">
-        <v>50.64578253283327</v>
+        <v>56.09286910996545</v>
       </c>
       <c r="H21">
-        <v>14.97295371318488</v>
+        <v>20.85200957953606</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.532162556704092</v>
+        <v>11.85113964661571</v>
       </c>
       <c r="K21">
-        <v>15.41163995699665</v>
+        <v>11.34731646066719</v>
       </c>
       <c r="L21">
-        <v>6.559529959993301</v>
+        <v>9.311969700692913</v>
       </c>
       <c r="M21">
-        <v>11.01312433534091</v>
+        <v>16.11082398858387</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.35986573720549</v>
+        <v>17.48802759728706</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.290365989430329</v>
+        <v>7.672741488090401</v>
       </c>
       <c r="E22">
-        <v>9.358402265934451</v>
+        <v>14.8903883224113</v>
       </c>
       <c r="F22">
-        <v>37.37942613955192</v>
+        <v>45.87653659263502</v>
       </c>
       <c r="G22">
-        <v>51.64974273959619</v>
+        <v>56.242048753546</v>
       </c>
       <c r="H22">
-        <v>15.09836375169301</v>
+        <v>20.84794712502622</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.501161216820848</v>
+        <v>11.84315615467109</v>
       </c>
       <c r="K22">
-        <v>15.94339755319726</v>
+        <v>11.48847448088951</v>
       </c>
       <c r="L22">
-        <v>6.77230332390477</v>
+        <v>9.322163986859969</v>
       </c>
       <c r="M22">
-        <v>11.23227912201287</v>
+        <v>16.12446114778307</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.13559180056251</v>
+        <v>17.45262120666658</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.278863207849549</v>
+        <v>7.674535128182612</v>
       </c>
       <c r="E23">
-        <v>9.371026358782562</v>
+        <v>14.89606776422311</v>
       </c>
       <c r="F23">
-        <v>37.0821052855222</v>
+        <v>45.85017507144531</v>
       </c>
       <c r="G23">
-        <v>51.11219599816318</v>
+        <v>56.16154997804992</v>
       </c>
       <c r="H23">
-        <v>15.03063665431541</v>
+        <v>20.84987171109433</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.517661185595872</v>
+        <v>11.84738913653425</v>
       </c>
       <c r="K23">
-        <v>15.66135509078832</v>
+        <v>11.41315096930457</v>
       </c>
       <c r="L23">
-        <v>6.659405590702351</v>
+        <v>9.316611310594372</v>
       </c>
       <c r="M23">
-        <v>11.11532637505892</v>
+        <v>16.11699235966596</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.2716020800869</v>
+        <v>17.32368760632144</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.237467466896621</v>
+        <v>7.68216483871876</v>
       </c>
       <c r="E24">
-        <v>9.421621809268474</v>
+        <v>14.91868428059504</v>
       </c>
       <c r="F24">
-        <v>35.99083987767769</v>
+        <v>45.76445672694556</v>
       </c>
       <c r="G24">
-        <v>49.11414181425121</v>
+        <v>55.87611057599833</v>
       </c>
       <c r="H24">
-        <v>14.79123309235769</v>
+        <v>20.86251430233074</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.581185899809021</v>
+        <v>11.86403625562167</v>
       </c>
       <c r="K24">
-        <v>14.55404484427037</v>
+        <v>11.12782051977903</v>
       </c>
       <c r="L24">
-        <v>6.217161817862687</v>
+        <v>9.298049650928119</v>
       </c>
       <c r="M24">
-        <v>10.67231115860241</v>
+        <v>16.09290547884032</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.31147656491036</v>
+        <v>17.19614731403089</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.197096717748749</v>
+        <v>7.692192870319964</v>
       </c>
       <c r="E25">
-        <v>9.481896891745038</v>
+        <v>14.94545461993382</v>
       </c>
       <c r="F25">
-        <v>34.88697097907833</v>
+        <v>45.70235348236928</v>
       </c>
       <c r="G25">
-        <v>47.04138105047216</v>
+        <v>55.61050838294113</v>
       </c>
       <c r="H25">
-        <v>14.56748803701355</v>
+        <v>20.88759305429181</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.652054063289408</v>
+        <v>11.88331501356916</v>
       </c>
       <c r="K25">
-        <v>13.27433892825784</v>
+        <v>10.82174321009839</v>
       </c>
       <c r="L25">
-        <v>5.790151615600654</v>
+        <v>9.283374534288132</v>
       </c>
       <c r="M25">
-        <v>10.19599724255352</v>
+        <v>16.0760017191003</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_118/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.11260631656082</v>
+        <v>12.58421841515148</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.701134910730441</v>
+        <v>4.170738569192565</v>
       </c>
       <c r="E2">
-        <v>14.96722265627409</v>
+        <v>9.530978453587764</v>
       </c>
       <c r="F2">
-        <v>45.68285142200519</v>
+        <v>34.1359999309118</v>
       </c>
       <c r="G2">
-        <v>55.45190140825297</v>
+        <v>45.58826136840664</v>
       </c>
       <c r="H2">
-        <v>20.91589483817961</v>
+        <v>14.43033103383906</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.89865745306942</v>
+        <v>7.706394628569613</v>
       </c>
       <c r="K2">
-        <v>10.59966846107984</v>
+        <v>12.25728463558039</v>
       </c>
       <c r="L2">
-        <v>9.277229157312012</v>
+        <v>5.547746184441955</v>
       </c>
       <c r="M2">
-        <v>16.07145015089271</v>
+        <v>9.848567653360437</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.06266031677161</v>
+        <v>12.0813198676916</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.708173286225478</v>
+        <v>4.154839195804178</v>
       </c>
       <c r="E3">
-        <v>14.98326580100813</v>
+        <v>9.567091261709571</v>
       </c>
       <c r="F3">
-        <v>45.6860255700572</v>
+        <v>33.66497782698421</v>
       </c>
       <c r="G3">
-        <v>55.36769166829395</v>
+        <v>44.65036176443796</v>
       </c>
       <c r="H3">
-        <v>20.94120542516939</v>
+        <v>14.3535392583356</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.90977629097207</v>
+        <v>7.744636943112468</v>
       </c>
       <c r="K3">
-        <v>10.45216576039691</v>
+        <v>11.52092422494601</v>
       </c>
       <c r="L3">
-        <v>9.275998421076055</v>
+        <v>5.38317254548923</v>
       </c>
       <c r="M3">
-        <v>16.07332847837192</v>
+        <v>9.616296446488416</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.03534555965846</v>
+        <v>11.76868780207029</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.712979496534544</v>
+        <v>4.146005561147171</v>
       </c>
       <c r="E4">
-        <v>14.99375550644383</v>
+        <v>9.590646923883394</v>
       </c>
       <c r="F4">
-        <v>45.69606354608946</v>
+        <v>33.39421784924775</v>
       </c>
       <c r="G4">
-        <v>55.32752680191187</v>
+        <v>44.0980611275191</v>
       </c>
       <c r="H4">
-        <v>20.95976722412843</v>
+        <v>14.31400815076887</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.91696071866224</v>
+        <v>7.768837016259194</v>
       </c>
       <c r="K4">
-        <v>10.36339746320939</v>
+        <v>11.045537238587</v>
       </c>
       <c r="L4">
-        <v>9.276698121696993</v>
+        <v>5.28231510223161</v>
       </c>
       <c r="M4">
-        <v>16.0769411896587</v>
+        <v>9.475669027317176</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.02506645370864</v>
+        <v>11.64050825473612</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.715060247211788</v>
+        <v>4.142633902633496</v>
       </c>
       <c r="E5">
-        <v>14.99819121779132</v>
+        <v>9.600590457998409</v>
       </c>
       <c r="F5">
-        <v>45.70218850668409</v>
+        <v>33.28847750990476</v>
       </c>
       <c r="G5">
-        <v>55.31406864774587</v>
+        <v>43.87898515177397</v>
       </c>
       <c r="H5">
-        <v>20.96809054458543</v>
+        <v>14.29976230004503</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.91997854209577</v>
+        <v>7.778882499562828</v>
       </c>
       <c r="K5">
-        <v>10.32772417912428</v>
+        <v>10.8459758026777</v>
       </c>
       <c r="L5">
-        <v>9.277350421523362</v>
+        <v>5.241318103698854</v>
       </c>
       <c r="M5">
-        <v>16.07903352165654</v>
+        <v>9.418928028051704</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.02341131162967</v>
+        <v>11.61918297976236</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.715413143083749</v>
+        <v>4.14208766807451</v>
       </c>
       <c r="E6">
-        <v>14.99893750296236</v>
+        <v>9.60226228947406</v>
       </c>
       <c r="F6">
-        <v>45.70332841816473</v>
+        <v>33.27119559485542</v>
       </c>
       <c r="G6">
-        <v>55.31200982203225</v>
+        <v>43.84297118595419</v>
       </c>
       <c r="H6">
-        <v>20.96951846701046</v>
+        <v>14.29750777747039</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.92048509878519</v>
+        <v>7.780561726629482</v>
       </c>
       <c r="K6">
-        <v>10.32183227874754</v>
+        <v>10.81248683261136</v>
       </c>
       <c r="L6">
-        <v>9.277480943745299</v>
+        <v>5.234518489555763</v>
       </c>
       <c r="M6">
-        <v>16.07941845095736</v>
+        <v>9.409542350968792</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.03520347165838</v>
+        <v>11.76696201923762</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.713007063122927</v>
+        <v>4.145959173003707</v>
       </c>
       <c r="E7">
-        <v>14.99381467534785</v>
+        <v>9.590779635290232</v>
       </c>
       <c r="F7">
-        <v>45.6961379124683</v>
+        <v>33.39277325000948</v>
       </c>
       <c r="G7">
-        <v>55.32733351262852</v>
+        <v>44.09508226067484</v>
       </c>
       <c r="H7">
-        <v>20.95987640189841</v>
+        <v>14.3138085515046</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.91700105291406</v>
+        <v>7.768971745328705</v>
       </c>
       <c r="K7">
-        <v>10.36291427122951</v>
+        <v>11.0428694931933</v>
       </c>
       <c r="L7">
-        <v>9.276705430717504</v>
+        <v>5.281761709254043</v>
       </c>
       <c r="M7">
-        <v>16.07696689465525</v>
+        <v>9.474901419387987</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.09469476626296</v>
+        <v>12.41172489349942</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.703461351212066</v>
+        <v>4.165060355166536</v>
       </c>
       <c r="E8">
-        <v>14.97262188870916</v>
+        <v>9.543141253997096</v>
       </c>
       <c r="F8">
-        <v>45.6822674369306</v>
+        <v>33.96973919273128</v>
       </c>
       <c r="G8">
-        <v>55.42047586114912</v>
+        <v>45.26002211699534</v>
       </c>
       <c r="H8">
-        <v>20.9239947024512</v>
+        <v>14.4022404668928</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.90241718892398</v>
+        <v>7.719433116171714</v>
       </c>
       <c r="K8">
-        <v>10.54846526769926</v>
+        <v>12.00821716352393</v>
       </c>
       <c r="L8">
-        <v>9.276503493439378</v>
+        <v>5.490993446850536</v>
       </c>
       <c r="M8">
-        <v>16.07158841370327</v>
+        <v>9.768106964990892</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.23752789928453</v>
+        <v>13.63835537098039</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.688573629346819</v>
+        <v>4.210153132075747</v>
       </c>
       <c r="E9">
-        <v>14.93611841722837</v>
+        <v>9.460850617190026</v>
       </c>
       <c r="F9">
-        <v>45.71920561747216</v>
+        <v>35.24913343085833</v>
       </c>
       <c r="G9">
-        <v>55.69427166652435</v>
+        <v>47.7284144308864</v>
       </c>
       <c r="H9">
-        <v>20.87761676898121</v>
+        <v>14.63843331908009</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.87664336562698</v>
+        <v>7.627855620986354</v>
       </c>
       <c r="K9">
-        <v>10.92445973886255</v>
+        <v>13.71695138795141</v>
       </c>
       <c r="L9">
-        <v>9.287597922465666</v>
+        <v>5.900591398895815</v>
       </c>
       <c r="M9">
-        <v>16.08047496289758</v>
+        <v>10.35607642769198</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.35779754607266</v>
+        <v>14.50847358965788</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.679953001910225</v>
+        <v>4.248350061524663</v>
       </c>
       <c r="E10">
-        <v>14.9123594127291</v>
+        <v>9.40742979650782</v>
       </c>
       <c r="F10">
-        <v>45.78534073232168</v>
+        <v>36.28121386195721</v>
       </c>
       <c r="G10">
-        <v>55.95028892134268</v>
+        <v>49.65004653875763</v>
       </c>
       <c r="H10">
-        <v>20.85818245405025</v>
+        <v>14.85340068866513</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.85941426570864</v>
+        <v>7.563766032966811</v>
       </c>
       <c r="K10">
-        <v>11.20521616447804</v>
+        <v>14.86122382014351</v>
       </c>
       <c r="L10">
-        <v>9.302670096569814</v>
+        <v>6.339675284101733</v>
       </c>
       <c r="M10">
-        <v>16.09873330339255</v>
+        <v>10.79251513945264</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.41569127371415</v>
+        <v>14.8962879806367</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.676530580398931</v>
+        <v>4.266930932533784</v>
       </c>
       <c r="E11">
-        <v>14.90221068206482</v>
+        <v>9.384722621439657</v>
       </c>
       <c r="F11">
-        <v>45.82385458144198</v>
+        <v>36.77110944686894</v>
       </c>
       <c r="G11">
-        <v>56.07847174789789</v>
+        <v>50.54700881223467</v>
       </c>
       <c r="H11">
-        <v>20.85252117510425</v>
+        <v>14.96087160959958</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.85194368390005</v>
+        <v>7.535256979339781</v>
       </c>
       <c r="K11">
-        <v>11.33331617839133</v>
+        <v>15.35812629159858</v>
       </c>
       <c r="L11">
-        <v>9.311008978505324</v>
+        <v>6.53813706898055</v>
       </c>
       <c r="M11">
-        <v>16.10955704910727</v>
+        <v>10.99139091944154</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.43805806178887</v>
+        <v>15.04191240208655</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.67530605303471</v>
+        <v>4.274149990318892</v>
       </c>
       <c r="E12">
-        <v>14.89846208701609</v>
+        <v>9.376359890431686</v>
       </c>
       <c r="F12">
-        <v>45.83964561780225</v>
+        <v>36.95958420019517</v>
       </c>
       <c r="G12">
-        <v>56.12867576237252</v>
+        <v>50.88990125914732</v>
       </c>
       <c r="H12">
-        <v>20.85083438943647</v>
+        <v>15.00301630803976</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.84916730384843</v>
+        <v>7.524550274283348</v>
       </c>
       <c r="K12">
-        <v>11.38183023617407</v>
+        <v>15.54294171820254</v>
       </c>
       <c r="L12">
-        <v>9.314377863457615</v>
+        <v>6.612035377841265</v>
       </c>
       <c r="M12">
-        <v>16.11401491107441</v>
+        <v>11.06670267694131</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.43322146947439</v>
+        <v>15.01060547906911</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.675566603188272</v>
+        <v>4.272586937960151</v>
       </c>
       <c r="E13">
-        <v>14.89926521555959</v>
+        <v>9.378150341826618</v>
       </c>
       <c r="F13">
-        <v>45.83619116366992</v>
+        <v>36.91886053122941</v>
       </c>
       <c r="G13">
-        <v>56.11778978705839</v>
+        <v>50.81590997582994</v>
       </c>
       <c r="H13">
-        <v>20.85117734754808</v>
+        <v>14.99387440112609</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.84976291235697</v>
+        <v>7.526852256101314</v>
       </c>
       <c r="K13">
-        <v>11.37138240281015</v>
+        <v>15.50328658655259</v>
       </c>
       <c r="L13">
-        <v>9.313642957800127</v>
+        <v>6.596175629470085</v>
       </c>
       <c r="M13">
-        <v>16.11303890671126</v>
+        <v>11.05048353552382</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.41752259280307</v>
+        <v>14.90829368622057</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.676428407201784</v>
+        <v>4.267521124371684</v>
       </c>
       <c r="E14">
-        <v>14.90190039053383</v>
+        <v>9.38402984327413</v>
       </c>
       <c r="F14">
-        <v>45.82512956995573</v>
+        <v>36.78655582979002</v>
       </c>
       <c r="G14">
-        <v>56.08256884396622</v>
+        <v>50.57515418630694</v>
       </c>
       <c r="H14">
-        <v>20.8523732445426</v>
+        <v>14.9643095397307</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.85171421711515</v>
+        <v>7.5343743697524</v>
       </c>
       <c r="K14">
-        <v>11.33730763103959</v>
+        <v>15.37339801922606</v>
       </c>
       <c r="L14">
-        <v>9.311281919545445</v>
+        <v>6.544241793073214</v>
       </c>
       <c r="M14">
-        <v>16.10991661987877</v>
+        <v>10.99758707094381</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.40796393409587</v>
+        <v>14.84546217625917</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.676965585352447</v>
+        <v>4.26444228883167</v>
       </c>
       <c r="E15">
-        <v>14.9035268101302</v>
+        <v>9.387662154869284</v>
       </c>
       <c r="F15">
-        <v>45.81851099424364</v>
+        <v>36.70590206872348</v>
       </c>
       <c r="G15">
-        <v>56.0612110264045</v>
+        <v>50.42810425441334</v>
       </c>
       <c r="H15">
-        <v>20.85316527497184</v>
+        <v>14.94639042851954</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.8529162872126</v>
+        <v>7.538993363963133</v>
       </c>
       <c r="K15">
-        <v>11.31643509809216</v>
+        <v>15.29340271182224</v>
       </c>
       <c r="L15">
-        <v>9.309863147775991</v>
+        <v>6.512267825553176</v>
       </c>
       <c r="M15">
-        <v>16.10805080948174</v>
+        <v>10.96518542044781</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.35407691715429</v>
+        <v>14.48296051510188</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.680186683037396</v>
+        <v>4.247160801279376</v>
       </c>
       <c r="E16">
-        <v>14.91303589790335</v>
+        <v>9.408946399437554</v>
       </c>
       <c r="F16">
-        <v>45.78299293208254</v>
+        <v>36.24961081526178</v>
       </c>
       <c r="G16">
-        <v>55.94214592890337</v>
+        <v>49.59188230341482</v>
       </c>
       <c r="H16">
-        <v>20.85861639872765</v>
+        <v>14.84657675013698</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.85990985320997</v>
+        <v>7.565641838456587</v>
       </c>
       <c r="K16">
-        <v>11.19684795018354</v>
+        <v>14.82827839856078</v>
       </c>
       <c r="L16">
-        <v>9.302154790537154</v>
+        <v>6.326528994327579</v>
       </c>
       <c r="M16">
-        <v>16.0980763678684</v>
+        <v>10.77952079055896</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.32182437256762</v>
+        <v>14.25846288113362</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.682290346736083</v>
+        <v>4.236874280064983</v>
       </c>
       <c r="E17">
-        <v>14.91903807417978</v>
+        <v>9.422416432377515</v>
       </c>
       <c r="F17">
-        <v>45.76335902774686</v>
+        <v>35.97493399306247</v>
       </c>
       <c r="G17">
-        <v>55.87209053901832</v>
+        <v>49.08468759704721</v>
       </c>
       <c r="H17">
-        <v>20.86277474398247</v>
+        <v>14.78786310049702</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.86429403241752</v>
+        <v>7.582152532516222</v>
       </c>
       <c r="K17">
-        <v>11.12354734174245</v>
+        <v>14.53691794286761</v>
       </c>
       <c r="L17">
-        <v>9.29780424996574</v>
+        <v>6.210335109291808</v>
       </c>
       <c r="M17">
-        <v>16.09260025869755</v>
+        <v>10.66567274334787</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.303573988349</v>
+        <v>14.12858773508531</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.683547318775447</v>
+        <v>4.231070518668301</v>
       </c>
       <c r="E18">
-        <v>14.92255244739581</v>
+        <v>9.430313641968342</v>
       </c>
       <c r="F18">
-        <v>45.75285985097142</v>
+        <v>35.81886507443829</v>
       </c>
       <c r="G18">
-        <v>55.832901025714</v>
+        <v>48.79511052934398</v>
       </c>
       <c r="H18">
-        <v>20.86546580346244</v>
+        <v>14.75500042133308</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.86685025464889</v>
+        <v>7.591710052269677</v>
       </c>
       <c r="K18">
-        <v>11.08142566836072</v>
+        <v>14.36710728847162</v>
       </c>
       <c r="L18">
-        <v>9.295441603245912</v>
+        <v>6.142673359609555</v>
       </c>
       <c r="M18">
-        <v>16.08968773489125</v>
+        <v>10.60022454463</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.29744673438179</v>
+        <v>14.08448821061512</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.683980989601122</v>
+        <v>4.229124558081314</v>
       </c>
       <c r="E19">
-        <v>14.92375302548368</v>
+        <v>9.43301300483032</v>
       </c>
       <c r="F19">
-        <v>45.74944148074363</v>
+        <v>35.76635143232635</v>
       </c>
       <c r="G19">
-        <v>55.81982243832508</v>
+        <v>48.6974353841769</v>
       </c>
       <c r="H19">
-        <v>20.86642835648008</v>
+        <v>14.74402793243269</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.86772168943317</v>
+        <v>7.594956654574571</v>
       </c>
       <c r="K19">
-        <v>11.06717220855812</v>
+        <v>14.30922837586223</v>
       </c>
       <c r="L19">
-        <v>9.294665699973777</v>
+        <v>6.119621398477681</v>
       </c>
       <c r="M19">
-        <v>16.08874242759931</v>
+        <v>10.57807231010684</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.32522671691224</v>
+        <v>14.28243931321542</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.682061546023461</v>
+        <v>4.237957559943528</v>
       </c>
       <c r="E20">
-        <v>14.91839270944136</v>
+        <v>9.420966995055721</v>
       </c>
       <c r="F20">
-        <v>45.76536697842138</v>
+        <v>36.003975120646</v>
       </c>
       <c r="G20">
-        <v>55.87943389058007</v>
+        <v>49.13845744598813</v>
       </c>
       <c r="H20">
-        <v>20.86230110656243</v>
+        <v>14.79401890968981</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.86382375393131</v>
+        <v>7.580388654030646</v>
       </c>
       <c r="K20">
-        <v>11.13134665474796</v>
+        <v>14.5681640143292</v>
       </c>
       <c r="L20">
-        <v>9.298252931569035</v>
+        <v>6.222789987870454</v>
       </c>
       <c r="M20">
-        <v>16.09315867219259</v>
+        <v>10.67778888331169</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.42212180615933</v>
+        <v>14.93837913983158</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.676173337262998</v>
+        <v>4.269004030929495</v>
       </c>
       <c r="E21">
-        <v>14.90112381324293</v>
+        <v>9.382296428498522</v>
       </c>
       <c r="F21">
-        <v>45.82834592668281</v>
+        <v>36.82533628157802</v>
       </c>
       <c r="G21">
-        <v>56.09286910996545</v>
+        <v>50.64578253283334</v>
       </c>
       <c r="H21">
-        <v>20.85200957953606</v>
+        <v>14.97295371318488</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.85113964661571</v>
+        <v>7.532162556704025</v>
       </c>
       <c r="K21">
-        <v>11.34731646066719</v>
+        <v>15.4116399569967</v>
       </c>
       <c r="L21">
-        <v>9.311969700692913</v>
+        <v>6.559529959993338</v>
       </c>
       <c r="M21">
-        <v>16.11082398858387</v>
+        <v>11.01312433534089</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.48802759728706</v>
+        <v>15.35986573720548</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.672741488090401</v>
+        <v>4.290365989430453</v>
       </c>
       <c r="E22">
-        <v>14.8903883224113</v>
+        <v>9.358402265934519</v>
       </c>
       <c r="F22">
-        <v>45.87653659263502</v>
+        <v>37.37942613955185</v>
       </c>
       <c r="G22">
-        <v>56.242048753546</v>
+        <v>51.64974273959611</v>
       </c>
       <c r="H22">
-        <v>20.84794712502622</v>
+        <v>15.09836375169298</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.84315615467109</v>
+        <v>7.501161216820848</v>
       </c>
       <c r="K22">
-        <v>11.48847448088951</v>
+        <v>15.94339755319728</v>
       </c>
       <c r="L22">
-        <v>9.322163986859969</v>
+        <v>6.772303323904755</v>
       </c>
       <c r="M22">
-        <v>16.12446114778307</v>
+        <v>11.23227912201286</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.45262120666658</v>
+        <v>15.13559180056254</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.674535128182612</v>
+        <v>4.278863207849485</v>
       </c>
       <c r="E23">
-        <v>14.89606776422311</v>
+        <v>9.371026358782697</v>
       </c>
       <c r="F23">
-        <v>45.85017507144531</v>
+        <v>37.08210528552215</v>
       </c>
       <c r="G23">
-        <v>56.16154997804992</v>
+        <v>51.1121959981632</v>
       </c>
       <c r="H23">
-        <v>20.84987171109433</v>
+        <v>15.0306366543154</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.84738913653425</v>
+        <v>7.517661185596008</v>
       </c>
       <c r="K23">
-        <v>11.41315096930457</v>
+        <v>15.66135509078838</v>
       </c>
       <c r="L23">
-        <v>9.316611310594372</v>
+        <v>6.659405590702412</v>
       </c>
       <c r="M23">
-        <v>16.11699235966596</v>
+        <v>11.11532637505892</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.32368760632144</v>
+        <v>14.2716020800869</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.68216483871876</v>
+        <v>4.237467466896619</v>
       </c>
       <c r="E24">
-        <v>14.91868428059504</v>
+        <v>9.421621809268476</v>
       </c>
       <c r="F24">
-        <v>45.76445672694556</v>
+        <v>35.99083987767766</v>
       </c>
       <c r="G24">
-        <v>55.87611057599833</v>
+        <v>49.11414181425117</v>
       </c>
       <c r="H24">
-        <v>20.86251430233074</v>
+        <v>14.79123309235769</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.86403625562167</v>
+        <v>7.581185899808987</v>
       </c>
       <c r="K24">
-        <v>11.12782051977903</v>
+        <v>14.55404484427038</v>
       </c>
       <c r="L24">
-        <v>9.298049650928119</v>
+        <v>6.217161817862726</v>
       </c>
       <c r="M24">
-        <v>16.09290547884032</v>
+        <v>10.6723111586024</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.19614731403089</v>
+        <v>13.31147656491034</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.692192870319964</v>
+        <v>4.197096717748633</v>
       </c>
       <c r="E25">
-        <v>14.94545461993382</v>
+        <v>9.481896891745032</v>
       </c>
       <c r="F25">
-        <v>45.70235348236928</v>
+        <v>34.88697097907837</v>
       </c>
       <c r="G25">
-        <v>55.61050838294113</v>
+        <v>47.04138105047232</v>
       </c>
       <c r="H25">
-        <v>20.88759305429181</v>
+        <v>14.56748803701363</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.88331501356916</v>
+        <v>7.65205406328954</v>
       </c>
       <c r="K25">
-        <v>10.82174321009839</v>
+        <v>13.27433892825782</v>
       </c>
       <c r="L25">
-        <v>9.283374534288132</v>
+        <v>5.790151615600704</v>
       </c>
       <c r="M25">
-        <v>16.0760017191003</v>
+        <v>10.19599724255355</v>
       </c>
       <c r="N25">
         <v>0</v>
